--- a/Grade 2018/Attendance/Attendance_Zhongwei_2018.xlsx
+++ b/Grade 2018/Attendance/Attendance_Zhongwei_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AE0938-275D-4DDA-A180-B5C7459F8DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC40B5B-8396-4E42-9C28-FF2192469464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC_1" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5910" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6289" uniqueCount="592">
   <si>
     <t>CC 1 - Attendance</t>
   </si>
@@ -1859,6 +1859,38 @@
   </si>
   <si>
     <t>11/19</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/23（上）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/23(晚）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/24</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/25</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/26</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/24（上）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/24（下）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/27(上）</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3732,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:LU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF10" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BA34" sqref="BA34"/>
+    <sheetView topLeftCell="AJ1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3:BF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.69140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -4267,11 +4299,21 @@
       <c r="BA2" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
+      <c r="BB2" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="BE2" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="BF2" s="11" t="s">
+        <v>588</v>
+      </c>
       <c r="BG2" s="11"/>
       <c r="BH2" s="11"/>
       <c r="BI2" s="11"/>
@@ -4467,11 +4509,21 @@
       <c r="BA3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
+      <c r="BB3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF3" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG3" s="15"/>
       <c r="BH3" s="15"/>
       <c r="BI3" s="15"/>
@@ -4668,11 +4720,21 @@
       <c r="BA4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
+      <c r="BB4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF4" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG4" s="15"/>
       <c r="BH4" s="15"/>
       <c r="BI4" s="15"/>
@@ -4869,11 +4931,21 @@
       <c r="BA5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
+      <c r="BB5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF5" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG5" s="15"/>
       <c r="BH5" s="15"/>
       <c r="BI5" s="15"/>
@@ -5070,11 +5142,21 @@
       <c r="BA6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
+      <c r="BB6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF6" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG6" s="15"/>
       <c r="BH6" s="15"/>
       <c r="BI6" s="15"/>
@@ -5108,7 +5190,7 @@
       <c r="CK6" s="15"/>
       <c r="CL6" s="40">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="7" spans="1:333" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5271,11 +5353,21 @@
       <c r="BA7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
+      <c r="BB7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF7" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG7" s="15"/>
       <c r="BH7" s="15"/>
       <c r="BI7" s="15"/>
@@ -5309,7 +5401,7 @@
       <c r="CK7" s="15"/>
       <c r="CL7" s="40">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="8" spans="1:333" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5472,11 +5564,21 @@
       <c r="BA8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="15"/>
+      <c r="BB8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF8" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG8" s="15"/>
       <c r="BH8" s="15"/>
       <c r="BI8" s="15"/>
@@ -5510,7 +5612,7 @@
       <c r="CK8" s="15"/>
       <c r="CL8" s="40">
         <f t="shared" si="0"/>
-        <v>0.93877551020408168</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="9" spans="1:333" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5673,11 +5775,21 @@
       <c r="BA9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
+      <c r="BB9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF9" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG9" s="15"/>
       <c r="BH9" s="15"/>
       <c r="BI9" s="15"/>
@@ -5711,7 +5823,7 @@
       <c r="CK9" s="15"/>
       <c r="CL9" s="40">
         <f t="shared" si="0"/>
-        <v>0.91836734693877553</v>
+        <v>0.92592592592592593</v>
       </c>
     </row>
     <row r="10" spans="1:333" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5874,11 +5986,21 @@
       <c r="BA10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
+      <c r="BB10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF10" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG10" s="15"/>
       <c r="BH10" s="15"/>
       <c r="BI10" s="15"/>
@@ -6075,11 +6197,21 @@
       <c r="BA11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
+      <c r="BB11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF11" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG11" s="15"/>
       <c r="BH11" s="15"/>
       <c r="BI11" s="15"/>
@@ -6276,11 +6408,21 @@
       <c r="BA12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="15"/>
+      <c r="BB12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF12" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG12" s="15"/>
       <c r="BH12" s="15"/>
       <c r="BI12" s="15"/>
@@ -6477,11 +6619,21 @@
       <c r="BA13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
+      <c r="BB13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF13" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG13" s="15"/>
       <c r="BH13" s="15"/>
       <c r="BI13" s="15"/>
@@ -6678,11 +6830,21 @@
       <c r="BA14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
+      <c r="BB14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF14" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG14" s="15"/>
       <c r="BH14" s="15"/>
       <c r="BI14" s="15"/>
@@ -6879,11 +7041,21 @@
       <c r="BA15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
-      <c r="BE15" s="15"/>
-      <c r="BF15" s="15"/>
+      <c r="BB15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF15" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG15" s="15"/>
       <c r="BH15" s="15"/>
       <c r="BI15" s="15"/>
@@ -6917,7 +7089,7 @@
       <c r="CK15" s="15"/>
       <c r="CL15" s="40">
         <f t="shared" si="0"/>
-        <v>0.95918367346938771</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="16" spans="1:333" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7080,11 +7252,21 @@
       <c r="BA16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
+      <c r="BB16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF16" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG16" s="15"/>
       <c r="BH16" s="15"/>
       <c r="BI16" s="15"/>
@@ -7118,7 +7300,7 @@
       <c r="CK16" s="15"/>
       <c r="CL16" s="40">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="17" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7281,11 +7463,21 @@
       <c r="BA17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15"/>
-      <c r="BE17" s="15"/>
-      <c r="BF17" s="15"/>
+      <c r="BB17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF17" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG17" s="15"/>
       <c r="BH17" s="15"/>
       <c r="BI17" s="15"/>
@@ -7482,11 +7674,21 @@
       <c r="BA18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="15"/>
+      <c r="BB18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF18" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG18" s="15"/>
       <c r="BH18" s="15"/>
       <c r="BI18" s="15"/>
@@ -7520,7 +7722,7 @@
       <c r="CK18" s="15"/>
       <c r="CL18" s="40">
         <f t="shared" si="0"/>
-        <v>0.95918367346938771</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="19" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7683,11 +7885,21 @@
       <c r="BA19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
-      <c r="BE19" s="15"/>
-      <c r="BF19" s="15"/>
+      <c r="BB19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF19" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG19" s="15"/>
       <c r="BH19" s="15"/>
       <c r="BI19" s="15"/>
@@ -7721,7 +7933,7 @@
       <c r="CK19" s="15"/>
       <c r="CL19" s="40">
         <f t="shared" si="0"/>
-        <v>0.93877551020408168</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="20" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7884,11 +8096,21 @@
       <c r="BA20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15"/>
-      <c r="BE20" s="15"/>
-      <c r="BF20" s="15"/>
+      <c r="BB20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF20" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG20" s="15"/>
       <c r="BH20" s="15"/>
       <c r="BI20" s="15"/>
@@ -8085,11 +8307,21 @@
       <c r="BA21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15"/>
+      <c r="BB21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF21" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG21" s="15"/>
       <c r="BH21" s="15"/>
       <c r="BI21" s="15"/>
@@ -8286,11 +8518,21 @@
       <c r="BA22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="15"/>
+      <c r="BB22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF22" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG22" s="15"/>
       <c r="BH22" s="15"/>
       <c r="BI22" s="15"/>
@@ -8487,11 +8729,21 @@
       <c r="BA23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB23" s="15"/>
-      <c r="BC23" s="15"/>
-      <c r="BD23" s="15"/>
-      <c r="BE23" s="15"/>
-      <c r="BF23" s="15"/>
+      <c r="BB23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF23" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG23" s="15"/>
       <c r="BH23" s="15"/>
       <c r="BI23" s="15"/>
@@ -8688,11 +8940,21 @@
       <c r="BA24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
-      <c r="BE24" s="15"/>
-      <c r="BF24" s="15"/>
+      <c r="BB24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF24" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG24" s="15"/>
       <c r="BH24" s="15"/>
       <c r="BI24" s="15"/>
@@ -8889,11 +9151,21 @@
       <c r="BA25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="15"/>
+      <c r="BB25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF25" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG25" s="15"/>
       <c r="BH25" s="15"/>
       <c r="BI25" s="15"/>
@@ -9090,11 +9362,21 @@
       <c r="BA26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="15"/>
+      <c r="BB26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF26" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG26" s="15"/>
       <c r="BH26" s="15"/>
       <c r="BI26" s="15"/>
@@ -9128,7 +9410,7 @@
       <c r="CK26" s="15"/>
       <c r="CL26" s="40">
         <f t="shared" si="0"/>
-        <v>0.95918367346938771</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="27" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9291,11 +9573,21 @@
       <c r="BA27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
+      <c r="BB27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF27" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG27" s="15"/>
       <c r="BH27" s="15"/>
       <c r="BI27" s="15"/>
@@ -9329,7 +9621,7 @@
       <c r="CK27" s="15"/>
       <c r="CL27" s="40">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="28" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9492,11 +9784,21 @@
       <c r="BA28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
-      <c r="BD28" s="15"/>
-      <c r="BE28" s="15"/>
-      <c r="BF28" s="15"/>
+      <c r="BB28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF28" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG28" s="15"/>
       <c r="BH28" s="15"/>
       <c r="BI28" s="15"/>
@@ -9693,11 +9995,21 @@
       <c r="BA29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
-      <c r="BD29" s="15"/>
-      <c r="BE29" s="15"/>
-      <c r="BF29" s="15"/>
+      <c r="BB29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF29" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG29" s="15"/>
       <c r="BH29" s="15"/>
       <c r="BI29" s="15"/>
@@ -9731,7 +10043,7 @@
       <c r="CK29" s="15"/>
       <c r="CL29" s="40">
         <f t="shared" si="0"/>
-        <v>0.95918367346938771</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="30" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9894,11 +10206,21 @@
       <c r="BA30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="15"/>
-      <c r="BD30" s="15"/>
-      <c r="BE30" s="15"/>
-      <c r="BF30" s="15"/>
+      <c r="BB30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF30" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG30" s="15"/>
       <c r="BH30" s="15"/>
       <c r="BI30" s="15"/>
@@ -10095,11 +10417,21 @@
       <c r="BA31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
+      <c r="BB31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF31" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG31" s="15"/>
       <c r="BH31" s="15"/>
       <c r="BI31" s="15"/>
@@ -10296,11 +10628,21 @@
       <c r="BA32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="15"/>
+      <c r="BB32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF32" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG32" s="15"/>
       <c r="BH32" s="15"/>
       <c r="BI32" s="15"/>
@@ -10497,11 +10839,21 @@
       <c r="BA33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="15"/>
-      <c r="BF33" s="15"/>
+      <c r="BB33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF33" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG33" s="15"/>
       <c r="BH33" s="15"/>
       <c r="BI33" s="15"/>
@@ -10535,7 +10887,7 @@
       <c r="CK33" s="15"/>
       <c r="CL33" s="40">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="34" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10698,11 +11050,21 @@
       <c r="BA34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="15"/>
+      <c r="BB34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF34" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG34" s="15"/>
       <c r="BH34" s="15"/>
       <c r="BI34" s="15"/>
@@ -10736,7 +11098,7 @@
       <c r="CK34" s="15"/>
       <c r="CL34" s="40">
         <f t="shared" si="0"/>
-        <v>0.91836734693877553</v>
+        <v>0.92592592592592593</v>
       </c>
     </row>
     <row r="35" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11004,11 +11366,21 @@
       <c r="BA36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="15"/>
-      <c r="BD36" s="15"/>
-      <c r="BE36" s="15"/>
-      <c r="BF36" s="15"/>
+      <c r="BB36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF36" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG36" s="15"/>
       <c r="BH36" s="15"/>
       <c r="BI36" s="15"/>
@@ -11205,11 +11577,21 @@
       <c r="BA37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB37" s="15"/>
-      <c r="BC37" s="15"/>
-      <c r="BD37" s="15"/>
-      <c r="BE37" s="15"/>
-      <c r="BF37" s="15"/>
+      <c r="BB37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF37" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG37" s="15"/>
       <c r="BH37" s="15"/>
       <c r="BI37" s="15"/>
@@ -11406,11 +11788,21 @@
       <c r="BA38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="15"/>
-      <c r="BD38" s="15"/>
-      <c r="BE38" s="15"/>
-      <c r="BF38" s="15"/>
+      <c r="BB38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF38" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG38" s="15"/>
       <c r="BH38" s="15"/>
       <c r="BI38" s="15"/>
@@ -11607,11 +11999,21 @@
       <c r="BA39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="15"/>
-      <c r="BD39" s="15"/>
-      <c r="BE39" s="15"/>
-      <c r="BF39" s="15"/>
+      <c r="BB39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF39" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG39" s="15"/>
       <c r="BH39" s="15"/>
       <c r="BI39" s="15"/>
@@ -11808,11 +12210,21 @@
       <c r="BA40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="15"/>
-      <c r="BD40" s="15"/>
-      <c r="BE40" s="15"/>
-      <c r="BF40" s="15"/>
+      <c r="BB40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF40" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG40" s="15"/>
       <c r="BH40" s="15"/>
       <c r="BI40" s="15"/>
@@ -11846,7 +12258,7 @@
       <c r="CK40" s="15"/>
       <c r="CL40" s="40">
         <f t="shared" si="0"/>
-        <v>0.95918367346938771</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="41" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12009,11 +12421,21 @@
       <c r="BA41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB41" s="15"/>
-      <c r="BC41" s="15"/>
-      <c r="BD41" s="15"/>
-      <c r="BE41" s="15"/>
-      <c r="BF41" s="15"/>
+      <c r="BB41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF41" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG41" s="15"/>
       <c r="BH41" s="15"/>
       <c r="BI41" s="15"/>
@@ -12210,11 +12632,21 @@
       <c r="BA42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="15"/>
-      <c r="BD42" s="15"/>
-      <c r="BE42" s="15"/>
-      <c r="BF42" s="15"/>
+      <c r="BB42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF42" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG42" s="15"/>
       <c r="BH42" s="15"/>
       <c r="BI42" s="15"/>
@@ -12411,11 +12843,21 @@
       <c r="BA43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB43" s="15"/>
-      <c r="BC43" s="15"/>
-      <c r="BD43" s="15"/>
-      <c r="BE43" s="15"/>
-      <c r="BF43" s="15"/>
+      <c r="BB43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF43" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG43" s="15"/>
       <c r="BH43" s="15"/>
       <c r="BI43" s="15"/>
@@ -12449,7 +12891,7 @@
       <c r="CK43" s="15"/>
       <c r="CL43" s="40">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="44" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12612,11 +13054,21 @@
       <c r="BA44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB44" s="15"/>
-      <c r="BC44" s="15"/>
-      <c r="BD44" s="15"/>
-      <c r="BE44" s="15"/>
-      <c r="BF44" s="15"/>
+      <c r="BB44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF44" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG44" s="15"/>
       <c r="BH44" s="15"/>
       <c r="BI44" s="15"/>
@@ -12810,11 +13262,21 @@
       <c r="BA45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BB45" s="15"/>
-      <c r="BC45" s="15"/>
-      <c r="BD45" s="15"/>
-      <c r="BE45" s="15"/>
-      <c r="BF45" s="15"/>
+      <c r="BB45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF45" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BG45" s="15"/>
       <c r="BH45" s="15"/>
       <c r="BI45" s="15"/>
@@ -13240,23 +13702,23 @@
       </c>
       <c r="BB48" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC48" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD48" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE48" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG48" s="29">
         <f t="shared" si="5"/>
@@ -13592,23 +14054,23 @@
       </c>
       <c r="BB49" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BC49" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BD49" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BE49" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BF49" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BG49" s="32">
         <f t="shared" si="10"/>
@@ -14438,7 +14900,7 @@
       </c>
       <c r="CL51" s="25">
         <f>AVERAGE(CL3:CL45)</f>
-        <v>0.96161321671525746</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="52" spans="2:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14647,25 +15109,25 @@
         <f t="shared" si="25"/>
         <v>47</v>
       </c>
-      <c r="BB53" s="35">
+      <c r="BB53" s="35" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BC53" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC53" s="35" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BD53" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BE53" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BF53" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BG53" s="35">
         <f t="shared" si="25"/>
@@ -14822,8 +15284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFB50"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="92" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AZ31" sqref="AZ31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="92" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="BD26" sqref="BD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.69140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -31407,10 +31869,18 @@
       <c r="AZ2" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
+      <c r="BA2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>591</v>
+      </c>
       <c r="BE2" s="11"/>
       <c r="BF2" s="11"/>
       <c r="BG2" s="11"/>
@@ -31603,10 +32073,18 @@
       <c r="AZ3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
+      <c r="BA3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD3" s="15" t="s">
+        <v>521</v>
+      </c>
       <c r="BE3" s="15"/>
       <c r="BF3" s="15"/>
       <c r="BG3" s="15"/>
@@ -31640,7 +32118,7 @@
       <c r="CI3" s="15"/>
       <c r="CJ3" s="40">
         <f t="shared" ref="CJ3:CJ42" si="0">(COUNTIF(E3:CI3,"√")+COUNTIF(E3:CI3,"AL"))/COUNTA(E3:CI3)</f>
-        <v>0.9375</v>
+        <v>0.94230769230769229</v>
       </c>
     </row>
     <row r="4" spans="1:16382" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -31800,10 +32278,18 @@
       <c r="AZ4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
+      <c r="BA4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD4" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE4" s="15"/>
       <c r="BF4" s="15"/>
       <c r="BG4" s="15"/>
@@ -31997,10 +32483,18 @@
       <c r="AZ5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
+      <c r="BA5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD5" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE5" s="15"/>
       <c r="BF5" s="15"/>
       <c r="BG5" s="15"/>
@@ -32034,7 +32528,7 @@
       <c r="CI5" s="15"/>
       <c r="CJ5" s="40">
         <f t="shared" si="0"/>
-        <v>0.97916666666666663</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="6" spans="1:16382" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -32194,10 +32688,18 @@
       <c r="AZ6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
+      <c r="BA6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD6" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE6" s="15"/>
       <c r="BF6" s="15"/>
       <c r="BG6" s="15"/>
@@ -32391,10 +32893,18 @@
       <c r="AZ7" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
+      <c r="BA7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD7" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE7" s="15"/>
       <c r="BF7" s="15"/>
       <c r="BG7" s="15"/>
@@ -32588,10 +33098,18 @@
       <c r="AZ8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
+      <c r="BA8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE8" s="15"/>
       <c r="BF8" s="15"/>
       <c r="BG8" s="15"/>
@@ -32785,10 +33303,18 @@
       <c r="AZ9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
+      <c r="BA9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD9" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE9" s="15"/>
       <c r="BF9" s="15"/>
       <c r="BG9" s="15"/>
@@ -32982,10 +33508,18 @@
       <c r="AZ10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
+      <c r="BA10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD10" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE10" s="15"/>
       <c r="BF10" s="15"/>
       <c r="BG10" s="15"/>
@@ -33179,10 +33713,18 @@
       <c r="AZ11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
+      <c r="BA11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD11" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE11" s="15"/>
       <c r="BF11" s="15"/>
       <c r="BG11" s="15"/>
@@ -33376,10 +33918,18 @@
       <c r="AZ12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
+      <c r="BA12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD12" s="15" t="s">
+        <v>521</v>
+      </c>
       <c r="BE12" s="15"/>
       <c r="BF12" s="15"/>
       <c r="BG12" s="15"/>
@@ -33573,10 +34123,18 @@
       <c r="AZ13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
+      <c r="BA13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD13" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE13" s="15"/>
       <c r="BF13" s="15"/>
       <c r="BG13" s="15"/>
@@ -33770,10 +34328,18 @@
       <c r="AZ14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
+      <c r="BA14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD14" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE14" s="15"/>
       <c r="BF14" s="15"/>
       <c r="BG14" s="15"/>
@@ -33967,10 +34533,18 @@
       <c r="AZ15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
+      <c r="BA15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD15" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE15" s="15"/>
       <c r="BF15" s="15"/>
       <c r="BG15" s="15"/>
@@ -34164,10 +34738,18 @@
       <c r="AZ16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
+      <c r="BA16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD16" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE16" s="15"/>
       <c r="BF16" s="15"/>
       <c r="BG16" s="15"/>
@@ -34361,10 +34943,18 @@
       <c r="AZ17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15"/>
+      <c r="BA17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD17" s="15" t="s">
+        <v>521</v>
+      </c>
       <c r="BE17" s="15"/>
       <c r="BF17" s="15"/>
       <c r="BG17" s="15"/>
@@ -34558,10 +35148,18 @@
       <c r="AZ18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
+      <c r="BA18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD18" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE18" s="15"/>
       <c r="BF18" s="15"/>
       <c r="BG18" s="15"/>
@@ -34755,10 +35353,18 @@
       <c r="AZ19" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
+      <c r="BA19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD19" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE19" s="15"/>
       <c r="BF19" s="15"/>
       <c r="BG19" s="15"/>
@@ -34952,10 +35558,18 @@
       <c r="AZ20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA20" s="15"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15"/>
+      <c r="BA20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD20" s="15" t="s">
+        <v>521</v>
+      </c>
       <c r="BE20" s="15"/>
       <c r="BF20" s="15"/>
       <c r="BG20" s="15"/>
@@ -35149,10 +35763,18 @@
       <c r="AZ21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
+      <c r="BA21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD21" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE21" s="15"/>
       <c r="BF21" s="15"/>
       <c r="BG21" s="15"/>
@@ -35186,7 +35808,7 @@
       <c r="CI21" s="15"/>
       <c r="CJ21" s="40">
         <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="22" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -35346,10 +35968,18 @@
       <c r="AZ22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15"/>
+      <c r="BA22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD22" s="15" t="s">
+        <v>521</v>
+      </c>
       <c r="BE22" s="15"/>
       <c r="BF22" s="15"/>
       <c r="BG22" s="15"/>
@@ -35543,10 +36173,18 @@
       <c r="AZ23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15"/>
-      <c r="BC23" s="15"/>
-      <c r="BD23" s="15"/>
+      <c r="BA23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD23" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE23" s="15"/>
       <c r="BF23" s="15"/>
       <c r="BG23" s="15"/>
@@ -35740,10 +36378,18 @@
       <c r="AZ24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
+      <c r="BA24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD24" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE24" s="15"/>
       <c r="BF24" s="15"/>
       <c r="BG24" s="15"/>
@@ -35777,7 +36423,7 @@
       <c r="CI24" s="15"/>
       <c r="CJ24" s="40">
         <f t="shared" si="0"/>
-        <v>0.97916666666666663</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="25" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -35937,10 +36583,18 @@
       <c r="AZ25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
+      <c r="BA25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD25" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE25" s="15"/>
       <c r="BF25" s="15"/>
       <c r="BG25" s="15"/>
@@ -36134,10 +36788,18 @@
       <c r="AZ26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
+      <c r="BA26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD26" s="15" t="s">
+        <v>521</v>
+      </c>
       <c r="BE26" s="15"/>
       <c r="BF26" s="15"/>
       <c r="BG26" s="15"/>
@@ -36331,10 +36993,18 @@
       <c r="AZ27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA27" s="15"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
+      <c r="BA27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD27" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE27" s="15"/>
       <c r="BF27" s="15"/>
       <c r="BG27" s="15"/>
@@ -36528,10 +37198,18 @@
       <c r="AZ28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
-      <c r="BD28" s="15"/>
+      <c r="BA28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD28" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE28" s="15"/>
       <c r="BF28" s="15"/>
       <c r="BG28" s="15"/>
@@ -36725,10 +37403,18 @@
       <c r="AZ29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
-      <c r="BD29" s="15"/>
+      <c r="BA29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD29" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE29" s="15"/>
       <c r="BF29" s="15"/>
       <c r="BG29" s="15"/>
@@ -36922,10 +37608,18 @@
       <c r="AZ30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA30" s="15"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="15"/>
-      <c r="BD30" s="15"/>
+      <c r="BA30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD30" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE30" s="15"/>
       <c r="BF30" s="15"/>
       <c r="BG30" s="15"/>
@@ -37119,10 +37813,18 @@
       <c r="AZ31" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
+      <c r="BA31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD31" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE31" s="15"/>
       <c r="BF31" s="15"/>
       <c r="BG31" s="15"/>
@@ -37316,10 +38018,18 @@
       <c r="AZ32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
+      <c r="BA32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD32" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE32" s="15"/>
       <c r="BF32" s="15"/>
       <c r="BG32" s="15"/>
@@ -37513,10 +38223,18 @@
       <c r="AZ33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
+      <c r="BA33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD33" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE33" s="15"/>
       <c r="BF33" s="15"/>
       <c r="BG33" s="15"/>
@@ -37550,7 +38268,7 @@
       <c r="CI33" s="15"/>
       <c r="CJ33" s="40">
         <f t="shared" si="0"/>
-        <v>0.97916666666666663</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="34" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -37710,10 +38428,18 @@
       <c r="AZ34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
+      <c r="BA34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD34" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE34" s="15"/>
       <c r="BF34" s="15"/>
       <c r="BG34" s="15"/>
@@ -37907,10 +38633,18 @@
       <c r="AZ35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA35" s="15"/>
-      <c r="BB35" s="15"/>
-      <c r="BC35" s="15"/>
-      <c r="BD35" s="15"/>
+      <c r="BA35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD35" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE35" s="15"/>
       <c r="BF35" s="15"/>
       <c r="BG35" s="15"/>
@@ -38104,10 +38838,18 @@
       <c r="AZ36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA36" s="15"/>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="15"/>
-      <c r="BD36" s="15"/>
+      <c r="BA36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD36" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE36" s="15"/>
       <c r="BF36" s="15"/>
       <c r="BG36" s="15"/>
@@ -38301,10 +39043,18 @@
       <c r="AZ37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA37" s="15"/>
-      <c r="BB37" s="15"/>
-      <c r="BC37" s="15"/>
-      <c r="BD37" s="15"/>
+      <c r="BA37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD37" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE37" s="15"/>
       <c r="BF37" s="15"/>
       <c r="BG37" s="15"/>
@@ -38498,10 +39248,18 @@
       <c r="AZ38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA38" s="15"/>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="15"/>
-      <c r="BD38" s="15"/>
+      <c r="BA38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD38" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE38" s="15"/>
       <c r="BF38" s="15"/>
       <c r="BG38" s="15"/>
@@ -38695,10 +39453,18 @@
       <c r="AZ39" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="BA39" s="15"/>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="15"/>
-      <c r="BD39" s="15"/>
+      <c r="BA39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD39" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE39" s="15"/>
       <c r="BF39" s="15"/>
       <c r="BG39" s="15"/>
@@ -38892,10 +39658,18 @@
       <c r="AZ40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA40" s="15"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="15"/>
-      <c r="BD40" s="15"/>
+      <c r="BA40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD40" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE40" s="15"/>
       <c r="BF40" s="15"/>
       <c r="BG40" s="15"/>
@@ -38929,7 +39703,7 @@
       <c r="CI40" s="15"/>
       <c r="CJ40" s="40">
         <f t="shared" si="0"/>
-        <v>0.89583333333333337</v>
+        <v>0.90384615384615385</v>
       </c>
     </row>
     <row r="41" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -39089,10 +39863,18 @@
       <c r="AZ41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA41" s="15"/>
-      <c r="BB41" s="15"/>
-      <c r="BC41" s="15"/>
-      <c r="BD41" s="15"/>
+      <c r="BA41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD41" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE41" s="15"/>
       <c r="BF41" s="15"/>
       <c r="BG41" s="15"/>
@@ -39126,7 +39908,7 @@
       <c r="CI41" s="15"/>
       <c r="CJ41" s="40">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.94230769230769229</v>
       </c>
     </row>
     <row r="42" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -39286,10 +40068,18 @@
       <c r="AZ42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BA42" s="15"/>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="15"/>
-      <c r="BD42" s="15"/>
+      <c r="BA42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD42" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="BE42" s="15"/>
       <c r="BF42" s="15"/>
       <c r="BG42" s="15"/>
@@ -39323,7 +40113,7 @@
       <c r="CI42" s="15"/>
       <c r="CJ42" s="40">
         <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="43" spans="1:88" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -39707,19 +40497,19 @@
       </c>
       <c r="BA45" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC45" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD45" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="29">
         <f t="shared" si="1"/>
@@ -40051,19 +40841,19 @@
       </c>
       <c r="BA46" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BB46" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BC46" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BD46" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BE46" s="32">
         <f t="shared" si="3"/>
@@ -40405,7 +41195,7 @@
       </c>
       <c r="BD47" s="32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE47" s="32">
         <f t="shared" si="5"/>
@@ -40877,7 +41667,7 @@
       </c>
       <c r="CJ48" s="25">
         <f>AVERAGE(CJ3:CJ42)</f>
-        <v>0.99062499999999998</v>
+        <v>0.99134615384615365</v>
       </c>
     </row>
     <row r="49" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -41082,21 +41872,21 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA50" s="35">
+      <c r="BA50" s="35" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BB50" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB50" s="35" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC50" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BD50" s="35">
+        <v>48</v>
+      </c>
+      <c r="BD50" s="35" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BE50" s="35">
         <f t="shared" si="11"/>
